--- a/data/gacha.xlsx
+++ b/data/gacha.xlsx
@@ -1,29 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640778BE-5514-403D-99C1-4699B52AEE62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="magicaldoll" sheetId="1" r:id="rId1"/>
     <sheet name="transformcard" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">transformcard!$A$1:$E$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">transformcard!$A$1:$F$147</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="130">
   <si>
     <t>등급</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -528,13 +538,17 @@
   </si>
   <si>
     <t>다크엘프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000000_ "/>
   </numFmts>
@@ -867,21 +881,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -889,639 +903,777 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>0.11595999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>0.11065999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>0.11065999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>0.11065999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>0.11595999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>0.10006</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>0.10006</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>8.4159999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>2.189E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>2.2960000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>2.2960000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>2.189E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>1.9740000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>2.189E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>1.8669999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>3.3E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>3.1E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>2.7E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>0.10821</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>0.10326</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>0.10326</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>0.10326</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>0.10821</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>9.3369999999999995E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>9.3369999999999995E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>7.8530000000000003E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>2.9489999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>3.0939999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>3.0939999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>27</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>2.9489999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <v>2.6610000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>27</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
         <v>2.9489999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" s="1">
         <v>2.5160000000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
         <v>9.1E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>35</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="1">
         <v>9.1E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>35</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="1">
         <v>9.6000000000000002E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>35</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="1">
         <v>9.1E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>35</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="1">
+      <c r="E43" s="1">
         <v>8.1999999999999998E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>35</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="1">
+      <c r="E44" s="1">
         <v>3.1E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>35</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="1">
         <v>3.1E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>35</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="1">
         <v>2.5999999999999998E-4</v>
       </c>
     </row>
@@ -1533,19 +1685,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1553,2053 +1705,2494 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
         <v>117</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3.1649999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3.1649999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>96</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
         <v>118</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3.1649999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
         <v>127</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3.0130000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
         <v>116</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3.1649999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>96</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3.1649999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>3.1649999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>96</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>3.1649999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>96</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
         <v>119</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>3.0130000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>96</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
         <v>44</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>3.1649999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>96</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>3.1649999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>96</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>3.1649999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>96</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>3.3160000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>3.0130000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>96</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>3.0130000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>96</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
         <v>50</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>3.0130000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
         <v>51</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>2.862E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
         <v>52</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>2.862E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>96</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
         <v>53</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>3.0130000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>96</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
         <v>54</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>3.0130000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
         <v>55</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>3.1649999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>96</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
         <v>56</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>3.0130000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>96</v>
       </c>
       <c r="B24" t="s">
         <v>60</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
         <v>120</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2.862E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
         <v>121</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>3.0130000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>96</v>
       </c>
       <c r="B26" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
         <v>57</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>3.0130000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
         <v>58</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>2.862E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>96</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
         <v>122</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>2.5590000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
         <v>59</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>2.5590000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>96</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
         <v>61</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>9.3900000000000008E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
         <v>62</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>8.9499999999999996E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
         <v>63</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>9.3900000000000008E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>28</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
         <v>64</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>8.9499999999999996E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>28</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
         <v>65</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>9.3900000000000008E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>96</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
         <v>66</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>9.3900000000000008E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>96</v>
       </c>
       <c r="B36" t="s">
         <v>28</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
         <v>67</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>9.3900000000000008E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>98</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
         <v>68</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>8.5100000000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>32</v>
       </c>
       <c r="B38" t="s">
         <v>28</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
         <v>69</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>8.5100000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>96</v>
       </c>
       <c r="B39" t="s">
         <v>28</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
         <v>123</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>8.9499999999999996E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>96</v>
       </c>
       <c r="B40" t="s">
         <v>28</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
         <v>70</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>8.9499999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>98</v>
       </c>
       <c r="B41" t="s">
         <v>28</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41">
+        <v>56</v>
+      </c>
+      <c r="D41" t="s">
         <v>71</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>8.9499999999999996E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>96</v>
       </c>
       <c r="B42" t="s">
         <v>28</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42">
+        <v>55</v>
+      </c>
+      <c r="D42" t="s">
         <v>72</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>8.0700000000000008E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>96</v>
       </c>
       <c r="B43" t="s">
         <v>28</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
         <v>73</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>8.5100000000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>96</v>
       </c>
       <c r="B44" t="s">
         <v>28</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
         <v>128</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>8.5100000000000002E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>32</v>
       </c>
       <c r="B45" t="s">
         <v>28</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45">
+        <v>59</v>
+      </c>
+      <c r="D45" t="s">
         <v>74</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>8.0700000000000008E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>96</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46">
+        <v>60</v>
+      </c>
+      <c r="D46" t="s">
         <v>75</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>8.0700000000000008E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>32</v>
       </c>
       <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
         <v>76</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>32</v>
       </c>
       <c r="B48" t="s">
         <v>95</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
         <v>77</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>32</v>
       </c>
       <c r="B49" t="s">
         <v>95</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
         <v>124</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>32</v>
       </c>
       <c r="B50" t="s">
         <v>95</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50">
+        <v>27</v>
+      </c>
+      <c r="D50" t="s">
         <v>78</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>96</v>
       </c>
       <c r="B51" t="s">
         <v>95</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51">
+        <v>23</v>
+      </c>
+      <c r="D51" t="s">
         <v>79</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>96</v>
       </c>
       <c r="B52" t="s">
         <v>95</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s">
         <v>80</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>32</v>
       </c>
       <c r="B53" t="s">
         <v>95</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
         <v>81</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>96</v>
       </c>
       <c r="B54" t="s">
         <v>95</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
         <v>82</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>96</v>
       </c>
       <c r="B55" t="s">
         <v>95</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55">
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
         <v>83</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>32</v>
       </c>
       <c r="B56" t="s">
         <v>95</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56">
+        <v>32</v>
+      </c>
+      <c r="D56" t="s">
         <v>84</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>32</v>
       </c>
       <c r="B57" t="s">
         <v>95</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
         <v>85</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>32</v>
       </c>
       <c r="B58" t="s">
         <v>95</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58">
+        <v>28</v>
+      </c>
+      <c r="D58" t="s">
         <v>86</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
       <c r="B59" t="s">
         <v>95</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59">
+        <v>33</v>
+      </c>
+      <c r="D59" t="s">
         <v>87</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>96</v>
       </c>
       <c r="B60" t="s">
         <v>95</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60">
+        <v>31</v>
+      </c>
+      <c r="D60" t="s">
         <v>88</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>96</v>
       </c>
       <c r="B61" t="s">
         <v>95</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
         <v>89</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>32</v>
       </c>
       <c r="B62" t="s">
         <v>95</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
         <v>90</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>32</v>
       </c>
       <c r="B63" t="s">
         <v>95</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63">
+        <v>37</v>
+      </c>
+      <c r="D63" t="s">
         <v>91</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>32</v>
       </c>
       <c r="B64" t="s">
         <v>95</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s">
         <v>92</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>32</v>
       </c>
       <c r="B65" t="s">
         <v>95</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65">
+        <v>39</v>
+      </c>
+      <c r="D65" t="s">
         <v>93</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>32</v>
       </c>
       <c r="B66" t="s">
         <v>95</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66">
+        <v>40</v>
+      </c>
+      <c r="D66" t="s">
         <v>94</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>32</v>
       </c>
       <c r="B67" t="s">
         <v>95</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67">
+        <v>41</v>
+      </c>
+      <c r="D67" t="s">
         <v>125</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>35</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68">
+        <v>72</v>
+      </c>
+      <c r="D68" t="s">
         <v>117</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>2.9530000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>35</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69">
+        <v>75</v>
+      </c>
+      <c r="D69" t="s">
         <v>40</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>2.9530000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>35</v>
       </c>
       <c r="B70" t="s">
         <v>60</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70">
+        <v>80</v>
+      </c>
+      <c r="D70" t="s">
         <v>118</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>2.9530000000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>35</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71">
+        <v>65</v>
+      </c>
+      <c r="D71" t="s">
         <v>127</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>2.8119999999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>35</v>
       </c>
       <c r="B72" t="s">
         <v>60</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72">
+        <v>64</v>
+      </c>
+      <c r="D72" t="s">
         <v>116</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>2.9530000000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>113</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73">
+        <v>61</v>
+      </c>
+      <c r="D73" t="s">
         <v>41</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>2.9530000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>113</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74">
+        <v>63</v>
+      </c>
+      <c r="D74" t="s">
         <v>42</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>2.9530000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>35</v>
       </c>
       <c r="B75" t="s">
         <v>60</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75">
+        <v>82</v>
+      </c>
+      <c r="D75" t="s">
         <v>43</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>2.9530000000000001E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>35</v>
       </c>
       <c r="B76" t="s">
         <v>60</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76">
+        <v>85</v>
+      </c>
+      <c r="D76" t="s">
         <v>119</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>2.8119999999999999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>114</v>
       </c>
       <c r="B77" t="s">
         <v>60</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77">
+        <v>86</v>
+      </c>
+      <c r="D77" t="s">
         <v>44</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>2.9530000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>35</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78">
+        <v>84</v>
+      </c>
+      <c r="D78" t="s">
         <v>45</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>2.9530000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>114</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79">
+        <v>78</v>
+      </c>
+      <c r="D79" t="s">
         <v>46</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>2.9530000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>35</v>
       </c>
       <c r="B80" t="s">
         <v>60</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80">
+        <v>83</v>
+      </c>
+      <c r="D80" t="s">
         <v>47</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>3.0939999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>35</v>
       </c>
       <c r="B81" t="s">
         <v>60</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81">
+        <v>70</v>
+      </c>
+      <c r="D81" t="s">
         <v>48</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>2.8119999999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>114</v>
       </c>
       <c r="B82" t="s">
         <v>60</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82">
+        <v>71</v>
+      </c>
+      <c r="D82" t="s">
         <v>49</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>2.8119999999999999E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>114</v>
       </c>
       <c r="B83" t="s">
         <v>60</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83">
+        <v>76</v>
+      </c>
+      <c r="D83" t="s">
         <v>50</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>2.8119999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>113</v>
       </c>
       <c r="B84" t="s">
         <v>60</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84">
+        <v>66</v>
+      </c>
+      <c r="D84" t="s">
         <v>51</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>2.6700000000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>114</v>
       </c>
       <c r="B85" t="s">
         <v>60</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85">
+        <v>69</v>
+      </c>
+      <c r="D85" t="s">
         <v>52</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>2.6700000000000002E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>35</v>
       </c>
       <c r="B86" t="s">
         <v>60</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86">
+        <v>73</v>
+      </c>
+      <c r="D86" t="s">
         <v>53</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>2.8119999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>114</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
         <v>54</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>2.8119999999999999E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>35</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88">
+        <v>67</v>
+      </c>
+      <c r="D88" t="s">
         <v>55</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>2.9530000000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>35</v>
       </c>
       <c r="B89" t="s">
         <v>60</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89">
+        <v>74</v>
+      </c>
+      <c r="D89" t="s">
         <v>56</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>2.8119999999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>35</v>
       </c>
       <c r="B90" t="s">
         <v>60</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90">
+        <v>77</v>
+      </c>
+      <c r="D90" t="s">
         <v>120</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>2.6700000000000002E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>114</v>
       </c>
       <c r="B91" t="s">
         <v>60</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91">
+        <v>81</v>
+      </c>
+      <c r="D91" t="s">
         <v>121</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>2.8119999999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>35</v>
       </c>
       <c r="B92" t="s">
         <v>60</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92">
+        <v>62</v>
+      </c>
+      <c r="D92" t="s">
         <v>57</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>2.8119999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>35</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93">
+        <v>79</v>
+      </c>
+      <c r="D93" t="s">
         <v>58</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>2.6700000000000002E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>114</v>
       </c>
       <c r="B94" t="s">
         <v>60</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94">
+        <v>88</v>
+      </c>
+      <c r="D94" t="s">
         <v>122</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>2.3879999999999998E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>114</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95">
+        <v>87</v>
+      </c>
+      <c r="D95" t="s">
         <v>59</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>2.3879999999999998E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>115</v>
       </c>
       <c r="B96" t="s">
         <v>28</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96">
+        <v>58</v>
+      </c>
+      <c r="D96" t="s">
         <v>61</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>1.2659999999999999E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>114</v>
       </c>
       <c r="B97" t="s">
         <v>28</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97">
+        <v>42</v>
+      </c>
+      <c r="D97" t="s">
         <v>62</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>1.206E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>114</v>
       </c>
       <c r="B98" t="s">
         <v>28</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98">
+        <v>52</v>
+      </c>
+      <c r="D98" t="s">
         <v>63</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>1.2659999999999999E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>35</v>
       </c>
       <c r="B99" t="s">
         <v>28</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99">
+        <v>50</v>
+      </c>
+      <c r="D99" t="s">
         <v>64</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>1.206E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>35</v>
       </c>
       <c r="B100" t="s">
         <v>28</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100">
+        <v>44</v>
+      </c>
+      <c r="D100" t="s">
         <v>65</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>1.2659999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>35</v>
       </c>
       <c r="B101" t="s">
         <v>28</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101">
+        <v>51</v>
+      </c>
+      <c r="D101" t="s">
         <v>66</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>1.2659999999999999E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>35</v>
       </c>
       <c r="B102" t="s">
         <v>28</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102">
+        <v>57</v>
+      </c>
+      <c r="D102" t="s">
         <v>67</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>1.2659999999999999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>115</v>
       </c>
       <c r="B103" t="s">
         <v>28</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103">
+        <v>49</v>
+      </c>
+      <c r="D103" t="s">
         <v>68</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>1.1469999999999999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>35</v>
       </c>
       <c r="B104" t="s">
         <v>28</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104">
+        <v>48</v>
+      </c>
+      <c r="D104" t="s">
         <v>69</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>1.1469999999999999E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>114</v>
       </c>
       <c r="B105" t="s">
         <v>28</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105">
+        <v>45</v>
+      </c>
+      <c r="D105" t="s">
         <v>123</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>1.206E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>113</v>
       </c>
       <c r="B106" t="s">
         <v>28</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106">
+        <v>46</v>
+      </c>
+      <c r="D106" t="s">
         <v>70</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>1.206E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>35</v>
       </c>
       <c r="B107" t="s">
         <v>28</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107">
+        <v>56</v>
+      </c>
+      <c r="D107" t="s">
         <v>71</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>1.206E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>35</v>
       </c>
       <c r="B108" t="s">
         <v>28</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108">
+        <v>55</v>
+      </c>
+      <c r="D108" t="s">
         <v>72</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>1.0880000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>35</v>
       </c>
       <c r="B109" t="s">
         <v>28</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109">
+        <v>43</v>
+      </c>
+      <c r="D109" t="s">
         <v>73</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>1.1469999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>35</v>
       </c>
       <c r="B110" t="s">
         <v>28</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110">
+        <v>47</v>
+      </c>
+      <c r="D110" t="s">
         <v>128</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>1.1469999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>35</v>
       </c>
       <c r="B111" t="s">
         <v>28</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111">
+        <v>59</v>
+      </c>
+      <c r="D111" t="s">
         <v>74</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>1.0880000000000001E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>35</v>
       </c>
       <c r="B112" t="s">
         <v>28</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112">
+        <v>60</v>
+      </c>
+      <c r="D112" t="s">
         <v>75</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>1.0880000000000001E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>113</v>
       </c>
       <c r="B113" t="s">
         <v>95</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113">
+        <v>20</v>
+      </c>
+      <c r="D113" t="s">
         <v>76</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>2.7999999999999998E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>114</v>
       </c>
       <c r="B114" t="s">
         <v>95</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114">
+        <v>25</v>
+      </c>
+      <c r="D114" t="s">
         <v>77</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>2.7999999999999998E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>35</v>
       </c>
       <c r="B115" t="s">
         <v>95</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115">
+        <v>22</v>
+      </c>
+      <c r="D115" t="s">
         <v>124</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>2.7999999999999998E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
       <c r="B116" t="s">
         <v>95</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116">
+        <v>27</v>
+      </c>
+      <c r="D116" t="s">
         <v>78</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>2.7999999999999998E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>35</v>
       </c>
       <c r="B117" t="s">
         <v>95</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117">
+        <v>23</v>
+      </c>
+      <c r="D117" t="s">
         <v>79</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>2.7999999999999998E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>35</v>
       </c>
       <c r="B118" t="s">
         <v>95</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118">
+        <v>24</v>
+      </c>
+      <c r="D118" t="s">
         <v>80</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>2.7999999999999998E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>35</v>
       </c>
       <c r="B119" t="s">
         <v>95</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119">
+        <v>21</v>
+      </c>
+      <c r="D119" t="s">
         <v>81</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>2.5999999999999998E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>35</v>
       </c>
       <c r="B120" t="s">
         <v>95</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120">
+        <v>26</v>
+      </c>
+      <c r="D120" t="s">
         <v>82</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>2.7999999999999998E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>114</v>
       </c>
       <c r="B121" t="s">
         <v>95</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121">
+        <v>30</v>
+      </c>
+      <c r="D121" t="s">
         <v>83</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>2.7999999999999998E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>114</v>
       </c>
       <c r="B122" t="s">
         <v>95</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122">
+        <v>32</v>
+      </c>
+      <c r="D122" t="s">
         <v>84</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <v>2.5999999999999998E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>35</v>
       </c>
       <c r="B123" t="s">
         <v>95</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123">
+        <v>17</v>
+      </c>
+      <c r="D123" t="s">
         <v>85</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>2.5999999999999998E-4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>35</v>
       </c>
       <c r="B124" t="s">
         <v>95</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
         <v>86</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>2.5999999999999998E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>35</v>
       </c>
       <c r="B125" t="s">
         <v>95</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125">
+        <v>33</v>
+      </c>
+      <c r="D125" t="s">
         <v>87</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>2.5999999999999998E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>35</v>
       </c>
       <c r="B126" t="s">
         <v>95</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126">
+        <v>31</v>
+      </c>
+      <c r="D126" t="s">
         <v>88</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>2.5999999999999998E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>114</v>
       </c>
       <c r="B127" t="s">
         <v>95</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127">
+        <v>29</v>
+      </c>
+      <c r="D127" t="s">
         <v>89</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>2.7999999999999998E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>35</v>
       </c>
       <c r="B128" t="s">
         <v>95</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128">
+        <v>19</v>
+      </c>
+      <c r="D128" t="s">
         <v>90</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>2.5999999999999998E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>35</v>
       </c>
       <c r="B129" t="s">
         <v>95</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129">
+        <v>37</v>
+      </c>
+      <c r="D129" t="s">
         <v>91</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>35</v>
       </c>
       <c r="B130" t="s">
         <v>95</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130">
+        <v>38</v>
+      </c>
+      <c r="D130" t="s">
         <v>92</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>35</v>
       </c>
       <c r="B131" t="s">
         <v>95</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131">
+        <v>39</v>
+      </c>
+      <c r="D131" t="s">
         <v>93</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>114</v>
       </c>
       <c r="B132" t="s">
         <v>95</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132">
+        <v>40</v>
+      </c>
+      <c r="D132" t="s">
         <v>94</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>35</v>
       </c>
       <c r="B133" t="s">
         <v>95</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133">
+        <v>41</v>
+      </c>
+      <c r="D133" t="s">
         <v>125</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>113</v>
       </c>
       <c r="B134" t="s">
         <v>39</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134">
+        <v>10</v>
+      </c>
+      <c r="D134" t="s">
         <v>99</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>113</v>
       </c>
       <c r="B135" t="s">
         <v>39</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135">
+        <v>13</v>
+      </c>
+      <c r="D135" t="s">
         <v>100</v>
       </c>
-      <c r="D135">
+      <c r="E135">
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>114</v>
       </c>
       <c r="B136" t="s">
         <v>39</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
         <v>101</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>35</v>
       </c>
       <c r="B137" t="s">
         <v>39</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137" t="s">
         <v>102</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>114</v>
       </c>
       <c r="B138" t="s">
         <v>39</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
         <v>103</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>35</v>
       </c>
       <c r="B139" t="s">
         <v>39</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s">
         <v>104</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>113</v>
       </c>
       <c r="B140" t="s">
         <v>39</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140">
+        <v>9</v>
+      </c>
+      <c r="D140" t="s">
         <v>105</v>
       </c>
-      <c r="D140">
+      <c r="E140">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>113</v>
       </c>
       <c r="B141" t="s">
         <v>39</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141">
+        <v>8</v>
+      </c>
+      <c r="D141" t="s">
         <v>106</v>
       </c>
-      <c r="D141">
+      <c r="E141">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>114</v>
       </c>
       <c r="B142" t="s">
         <v>39</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142">
+        <v>12</v>
+      </c>
+      <c r="D142" t="s">
         <v>107</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>35</v>
       </c>
       <c r="B143" t="s">
         <v>39</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143">
+        <v>7</v>
+      </c>
+      <c r="D143" t="s">
         <v>108</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>114</v>
       </c>
       <c r="B144" t="s">
         <v>39</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
         <v>109</v>
       </c>
-      <c r="D144">
+      <c r="E144">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>35</v>
       </c>
       <c r="B145" t="s">
         <v>39</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
         <v>110</v>
       </c>
-      <c r="D145">
+      <c r="E145">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>113</v>
       </c>
       <c r="B146" t="s">
         <v>39</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146">
+        <v>14</v>
+      </c>
+      <c r="D146" t="s">
         <v>111</v>
       </c>
-      <c r="D146">
+      <c r="E146">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>35</v>
       </c>
       <c r="B147" t="s">
         <v>39</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
         <v>112</v>
       </c>
-      <c r="D147">
+      <c r="E147">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
